--- a/Linux/DeviceDrivers/Document(important)/2.设备树相关.xlsx
+++ b/Linux/DeviceDrivers/Document(important)/2.设备树相关.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E62D5101-92E3-47E8-9F40-294D0DC98053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8310" yWindow="-195" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="machine_desc" sheetId="2" r:id="rId1"/>
@@ -1218,9 +1217,6 @@
     <t>do_initcall_level(level)</t>
   </si>
   <si>
-    <t>do_one_initcall(*fn)</t>
-  </si>
-  <si>
     <t>arch_initcall(customize_machine);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1466,12 +1462,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>do_one_initcall(*fn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1770,38 +1770,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,12 +1795,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1846,7 +1846,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1888,7 +1888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1920,27 +1920,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1972,24 +1954,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2165,24 +2129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ79"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:78">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:78">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -2265,7 +2229,7 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:78">
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2346,7 +2310,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="7"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:78">
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
@@ -2427,7 +2391,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:78">
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -2508,7 +2472,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:78">
       <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
@@ -2589,7 +2553,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:78">
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -2670,7 +2634,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:78">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -2751,7 +2715,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:78">
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +2796,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:78">
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +2877,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:78">
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2994,7 +2958,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:78">
       <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
@@ -3075,7 +3039,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:78">
       <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
@@ -3156,7 +3120,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:78">
       <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
@@ -3237,7 +3201,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:78">
       <c r="B17" s="5" t="s">
         <v>23</v>
       </c>
@@ -3318,7 +3282,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:78">
       <c r="B18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3399,7 +3363,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:78">
       <c r="B19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3480,7 +3444,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:78">
       <c r="B20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3561,7 +3525,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:78">
       <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3642,7 +3606,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:78">
       <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
@@ -3723,7 +3687,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:78">
       <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
@@ -3804,7 +3768,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:78">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
@@ -3885,7 +3849,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:78">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
@@ -3966,7 +3930,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:78">
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
@@ -4047,7 +4011,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:78">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
@@ -4128,7 +4092,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:78">
       <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
@@ -4209,7 +4173,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:78">
       <c r="B29" s="5" t="s">
         <v>35</v>
       </c>
@@ -4290,7 +4254,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:78">
       <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
@@ -4371,7 +4335,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:78">
       <c r="B31" s="5" t="s">
         <v>37</v>
       </c>
@@ -4452,7 +4416,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:78">
       <c r="B32" s="5" t="s">
         <v>38</v>
       </c>
@@ -4533,7 +4497,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:78">
       <c r="B33" s="5" t="s">
         <v>39</v>
       </c>
@@ -4614,7 +4578,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:78">
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
@@ -4695,7 +4659,7 @@
       <c r="BY34" s="6"/>
       <c r="BZ34" s="7"/>
     </row>
-    <row r="35" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:78">
       <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
@@ -4776,7 +4740,7 @@
       <c r="BY35" s="6"/>
       <c r="BZ35" s="7"/>
     </row>
-    <row r="36" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:78">
       <c r="B36" s="5" t="s">
         <v>18</v>
       </c>
@@ -4857,7 +4821,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:78">
       <c r="B37" s="5" t="s">
         <v>42</v>
       </c>
@@ -4938,7 +4902,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:78">
       <c r="B38" s="8" t="s">
         <v>43</v>
       </c>
@@ -5019,7 +4983,7 @@
       <c r="BY38" s="9"/>
       <c r="BZ38" s="10"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:78">
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
@@ -5102,7 +5066,7 @@
       <c r="BY41" s="3"/>
       <c r="BZ41" s="4"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:78">
       <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
@@ -5183,7 +5147,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:78">
       <c r="B43" s="5" t="s">
         <v>47</v>
       </c>
@@ -5264,7 +5228,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:78">
       <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
@@ -5347,7 +5311,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:78">
       <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
@@ -5428,7 +5392,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:78">
       <c r="B46" s="5" t="s">
         <v>50</v>
       </c>
@@ -5509,7 +5473,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:78">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -5588,7 +5552,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:78">
       <c r="B48" s="5" t="s">
         <v>51</v>
       </c>
@@ -5669,7 +5633,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:78">
       <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
@@ -5750,7 +5714,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:78">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -5829,7 +5793,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:78">
       <c r="B51" s="5" t="s">
         <v>67</v>
       </c>
@@ -5912,7 +5876,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:78">
       <c r="B52" s="5" t="s">
         <v>68</v>
       </c>
@@ -5995,7 +5959,7 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:78">
       <c r="B53" s="5" t="s">
         <v>69</v>
       </c>
@@ -6076,7 +6040,7 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:78">
       <c r="B54" s="5" t="s">
         <v>70</v>
       </c>
@@ -6157,7 +6121,7 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:78">
       <c r="B55" s="8" t="s">
         <v>71</v>
       </c>
@@ -6238,7 +6202,7 @@
       <c r="BY55" s="9"/>
       <c r="BZ55" s="10"/>
     </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:78">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -6317,7 +6281,7 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="6"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:78">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -6396,7 +6360,7 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="6"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:78">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -6479,7 +6443,7 @@
       <c r="BY58" s="3"/>
       <c r="BZ58" s="4"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:78">
       <c r="B59" s="5" t="s">
         <v>65</v>
       </c>
@@ -6560,7 +6524,7 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:78">
       <c r="B60" s="5" t="s">
         <v>53</v>
       </c>
@@ -6641,7 +6605,7 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:78">
       <c r="B61" s="5" t="s">
         <v>43</v>
       </c>
@@ -6722,7 +6686,7 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -6801,7 +6765,7 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:78">
       <c r="B63" s="5" t="s">
         <v>54</v>
       </c>
@@ -6882,7 +6846,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:78">
       <c r="B64" s="5" t="s">
         <v>55</v>
       </c>
@@ -6963,7 +6927,7 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:78">
       <c r="B65" s="5" t="s">
         <v>56</v>
       </c>
@@ -7044,7 +7008,7 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:78">
       <c r="B66" s="5" t="s">
         <v>57</v>
       </c>
@@ -7125,7 +7089,7 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:78">
       <c r="B67" s="5" t="s">
         <v>58</v>
       </c>
@@ -7206,7 +7170,7 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:78">
       <c r="B68" s="5" t="s">
         <v>59</v>
       </c>
@@ -7287,7 +7251,7 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:78">
       <c r="B69" s="5" t="s">
         <v>60</v>
       </c>
@@ -7368,7 +7332,7 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:78">
       <c r="B70" s="5" t="s">
         <v>61</v>
       </c>
@@ -7449,7 +7413,7 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:78">
       <c r="B71" s="5" t="s">
         <v>62</v>
       </c>
@@ -7530,7 +7494,7 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:78">
       <c r="B72" s="8" t="s">
         <v>63</v>
       </c>
@@ -7611,7 +7575,7 @@
       <c r="BY72" s="9"/>
       <c r="BZ72" s="10"/>
     </row>
-    <row r="75" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:78">
       <c r="B75" s="2" t="s">
         <v>74</v>
       </c>
@@ -7694,7 +7658,7 @@
       <c r="BY75" s="3"/>
       <c r="BZ75" s="4"/>
     </row>
-    <row r="76" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:78">
       <c r="B76" s="5" t="s">
         <v>75</v>
       </c>
@@ -7775,7 +7739,7 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:78">
       <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
@@ -7856,7 +7820,7 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:78">
       <c r="B78" s="5" t="s">
         <v>77</v>
       </c>
@@ -7937,7 +7901,7 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:78">
       <c r="B79" s="8" t="s">
         <v>78</v>
       </c>
@@ -8026,215 +7990,215 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E399B7CE-7821-4C3A-B5C6-638C31E047CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:21">
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:21">
       <c r="F4" s="11" t="s">
         <v>88</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I6" s="21" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="I6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I7" s="24" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="26"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="I7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="29"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I9" s="21" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="23"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="I9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="23"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I10" s="24" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="I10" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I11" s="27"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I12" s="21" t="s">
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="23"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="I12" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I13" s="24" t="s">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="26"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="I13" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="29"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="I14" s="21"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+    </row>
+    <row r="15" spans="2:21">
       <c r="F15" s="11" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:78">
       <c r="B18" s="2" t="s">
         <v>94</v>
       </c>
@@ -8317,7 +8281,7 @@
       <c r="BY18" s="3"/>
       <c r="BZ18" s="4"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:78">
       <c r="B19" s="5" t="s">
         <v>109</v>
       </c>
@@ -8398,7 +8362,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:78">
       <c r="B20" s="5" t="s">
         <v>95</v>
       </c>
@@ -8479,7 +8443,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:78">
       <c r="B21" s="5" t="s">
         <v>96</v>
       </c>
@@ -8560,7 +8524,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:78">
       <c r="B22" s="5" t="s">
         <v>97</v>
       </c>
@@ -8641,7 +8605,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:78">
       <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
@@ -8722,7 +8686,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:78">
       <c r="B24" s="5" t="s">
         <v>99</v>
       </c>
@@ -8803,7 +8767,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:78">
       <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
@@ -8884,7 +8848,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:78">
       <c r="B26" s="5" t="s">
         <v>101</v>
       </c>
@@ -8965,7 +8929,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:78">
       <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
@@ -9046,7 +9010,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:78">
       <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
@@ -9127,7 +9091,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:78">
       <c r="B29" s="5" t="s">
         <v>104</v>
       </c>
@@ -9208,7 +9172,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:78">
       <c r="B30" s="5" t="s">
         <v>105</v>
       </c>
@@ -9289,7 +9253,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:78">
       <c r="B31" s="5" t="s">
         <v>106</v>
       </c>
@@ -9370,7 +9334,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:78">
       <c r="B32" s="8" t="s">
         <v>43</v>
       </c>
@@ -9451,7 +9415,7 @@
       <c r="BY32" s="9"/>
       <c r="BZ32" s="10"/>
     </row>
-    <row r="35" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:78">
       <c r="B35" s="2" t="s">
         <v>110</v>
       </c>
@@ -9534,7 +9498,7 @@
       <c r="BY35" s="3"/>
       <c r="BZ35" s="4"/>
     </row>
-    <row r="36" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:78">
       <c r="B36" s="5" t="s">
         <v>111</v>
       </c>
@@ -9615,7 +9579,7 @@
       <c r="BY36" s="6"/>
       <c r="BZ36" s="7"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:78">
       <c r="B37" s="5" t="s">
         <v>112</v>
       </c>
@@ -9696,7 +9660,7 @@
       <c r="BY37" s="6"/>
       <c r="BZ37" s="7"/>
     </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:78">
       <c r="B38" s="5" t="s">
         <v>113</v>
       </c>
@@ -9777,7 +9741,7 @@
       <c r="BY38" s="6"/>
       <c r="BZ38" s="7"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:78">
       <c r="B39" s="5" t="s">
         <v>114</v>
       </c>
@@ -9858,7 +9822,7 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:78">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -9937,7 +9901,7 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:78">
       <c r="B41" s="5" t="s">
         <v>115</v>
       </c>
@@ -10020,7 +9984,7 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:78">
       <c r="B42" s="5" t="s">
         <v>116</v>
       </c>
@@ -10101,7 +10065,7 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:78">
       <c r="B43" s="5" t="s">
         <v>117</v>
       </c>
@@ -10182,7 +10146,7 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:78">
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
@@ -10263,7 +10227,7 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:78">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -10342,7 +10306,7 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:78">
       <c r="B46" s="5" t="s">
         <v>118</v>
       </c>
@@ -10425,7 +10389,7 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:78">
       <c r="B47" s="5" t="s">
         <v>116</v>
       </c>
@@ -10506,7 +10470,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:78">
       <c r="B48" s="5" t="s">
         <v>119</v>
       </c>
@@ -10587,7 +10551,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:78">
       <c r="B49" s="5" t="s">
         <v>120</v>
       </c>
@@ -10668,7 +10632,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:78">
       <c r="B50" s="5" t="s">
         <v>121</v>
       </c>
@@ -10749,7 +10713,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:78">
       <c r="B51" s="5" t="s">
         <v>43</v>
       </c>
@@ -10830,7 +10794,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:78">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -10909,24 +10873,24 @@
       <c r="BY52" s="6"/>
       <c r="BZ52" s="7"/>
     </row>
-    <row r="53" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:78">
       <c r="B53" s="5"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="20" t="s">
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -10992,25 +10956,25 @@
       <c r="BY53" s="6"/>
       <c r="BZ53" s="7"/>
     </row>
-    <row r="54" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:78">
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20" t="s">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -11075,42 +11039,42 @@
       <c r="BY54" s="6"/>
       <c r="BZ54" s="7"/>
     </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:78">
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="15" t="s">
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="16" t="s">
+      <c r="L55" s="30"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="17" t="s">
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
+      <c r="T55" s="31"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="31"/>
+      <c r="W55" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+      <c r="AA55" s="32"/>
+      <c r="AB55" s="32"/>
       <c r="AC55" s="6"/>
       <c r="AD55" s="6"/>
       <c r="AE55" s="6"/>
@@ -11162,42 +11126,42 @@
       <c r="BY55" s="6"/>
       <c r="BZ55" s="7"/>
     </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:78">
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="15" t="s">
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="16" t="s">
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="17" t="s">
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="31"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="31"/>
+      <c r="W56" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="17"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="17"/>
-      <c r="AB56" s="17"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="32"/>
+      <c r="AA56" s="32"/>
+      <c r="AB56" s="32"/>
       <c r="AC56" s="6"/>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6"/>
@@ -11249,17 +11213,17 @@
       <c r="BY56" s="6"/>
       <c r="BZ56" s="7"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:78">
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="33"/>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -11330,25 +11294,25 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="7"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:78">
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20" t="s">
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
       <c r="P58" s="6"/>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -11413,42 +11377,42 @@
       <c r="BY58" s="6"/>
       <c r="BZ58" s="7"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:78">
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="14" t="s">
+      <c r="E59" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="15" t="s">
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="15"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="16" t="s">
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="17" t="s">
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="31"/>
+      <c r="U59" s="31"/>
+      <c r="V59" s="31"/>
+      <c r="W59" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X59" s="17"/>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+      <c r="Z59" s="32"/>
+      <c r="AA59" s="32"/>
+      <c r="AB59" s="32"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
       <c r="AE59" s="6"/>
@@ -11500,42 +11464,42 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:78">
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="14" t="s">
+      <c r="E60" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="15" t="s">
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="16" t="s">
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="17" t="s">
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="31"/>
+      <c r="U60" s="31"/>
+      <c r="V60" s="31"/>
+      <c r="W60" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="X60" s="17"/>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17"/>
-      <c r="AB60" s="17"/>
+      <c r="X60" s="32"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
       <c r="AC60" s="6"/>
       <c r="AD60" s="6"/>
       <c r="AE60" s="6"/>
@@ -11587,17 +11551,17 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:78">
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="33"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
@@ -11668,16 +11632,16 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="33"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6"/>
       <c r="K62" s="6"/>
@@ -11749,16 +11713,16 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:78">
       <c r="B63" s="5"/>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
       <c r="I63" s="6"/>
       <c r="J63" s="6"/>
       <c r="K63" s="6"/>
@@ -11830,7 +11794,7 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:78">
       <c r="B64" s="8"/>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -11911,17 +11875,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="I4:U5"/>
-    <mergeCell ref="I6:U6"/>
-    <mergeCell ref="I7:U8"/>
-    <mergeCell ref="I9:U9"/>
-    <mergeCell ref="I10:U11"/>
-    <mergeCell ref="I12:U12"/>
-    <mergeCell ref="I13:U14"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="D54:I54"/>
-    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="K60:P60"/>
+    <mergeCell ref="Q60:V60"/>
+    <mergeCell ref="W60:AB60"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="E59:J59"/>
     <mergeCell ref="K59:P59"/>
     <mergeCell ref="Q59:V59"/>
@@ -11937,13 +11897,17 @@
     <mergeCell ref="D57:I57"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="J58:O58"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="K60:P60"/>
-    <mergeCell ref="Q60:V60"/>
-    <mergeCell ref="W60:AB60"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="I12:U12"/>
+    <mergeCell ref="I13:U14"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I4:U5"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="I7:U8"/>
+    <mergeCell ref="I9:U9"/>
+    <mergeCell ref="I10:U11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11951,24 +11915,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26299D11-F496-446C-935E-04D328BADC6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:78">
       <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:78">
       <c r="B4" s="2" t="s">
         <v>149</v>
       </c>
@@ -12051,7 +12015,7 @@
       <c r="BY4" s="3"/>
       <c r="BZ4" s="4"/>
     </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:78">
       <c r="B5" s="5" t="s">
         <v>150</v>
       </c>
@@ -12132,7 +12096,7 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="7"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:78">
       <c r="B6" s="5" t="s">
         <v>151</v>
       </c>
@@ -12213,7 +12177,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:78">
       <c r="B7" s="5" t="s">
         <v>152</v>
       </c>
@@ -12294,7 +12258,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:78">
       <c r="B8" s="5" t="s">
         <v>153</v>
       </c>
@@ -12375,7 +12339,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:78">
       <c r="B9" s="5" t="s">
         <v>154</v>
       </c>
@@ -12456,7 +12420,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:78">
       <c r="B10" s="5" t="s">
         <v>155</v>
       </c>
@@ -12537,7 +12501,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:78">
       <c r="B11" s="5" t="s">
         <v>156</v>
       </c>
@@ -12618,7 +12582,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:78">
       <c r="B12" s="8" t="s">
         <v>43</v>
       </c>
@@ -12699,7 +12663,7 @@
       <c r="BY12" s="9"/>
       <c r="BZ12" s="10"/>
     </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:78">
       <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
@@ -12782,7 +12746,7 @@
       <c r="BY15" s="3"/>
       <c r="BZ15" s="4"/>
     </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:78">
       <c r="B16" s="5" t="s">
         <v>131</v>
       </c>
@@ -12863,7 +12827,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:78">
       <c r="B17" s="5" t="s">
         <v>132</v>
       </c>
@@ -12944,7 +12908,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:78">
       <c r="B18" s="5" t="s">
         <v>133</v>
       </c>
@@ -13025,7 +12989,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:78">
       <c r="B19" s="5" t="s">
         <v>134</v>
       </c>
@@ -13106,7 +13070,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:78">
       <c r="B20" s="5" t="s">
         <v>135</v>
       </c>
@@ -13187,7 +13151,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:78">
       <c r="B21" s="5" t="s">
         <v>136</v>
       </c>
@@ -13268,7 +13232,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:78">
       <c r="B22" s="5" t="s">
         <v>137</v>
       </c>
@@ -13349,7 +13313,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:78">
       <c r="B23" s="5" t="s">
         <v>138</v>
       </c>
@@ -13430,7 +13394,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:78">
       <c r="B24" s="5" t="s">
         <v>139</v>
       </c>
@@ -13511,7 +13475,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:78">
       <c r="B25" s="5" t="s">
         <v>140</v>
       </c>
@@ -13592,7 +13556,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:78">
       <c r="B26" s="5" t="s">
         <v>141</v>
       </c>
@@ -13673,7 +13637,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:78">
       <c r="B27" s="5" t="s">
         <v>142</v>
       </c>
@@ -13754,7 +13718,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:78">
       <c r="B28" s="5" t="s">
         <v>143</v>
       </c>
@@ -13835,7 +13799,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:78">
       <c r="B29" s="5" t="s">
         <v>144</v>
       </c>
@@ -13916,7 +13880,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:78">
       <c r="B30" s="5" t="s">
         <v>145</v>
       </c>
@@ -13997,7 +13961,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:78">
       <c r="B31" s="5" t="s">
         <v>146</v>
       </c>
@@ -14078,7 +14042,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:78">
       <c r="B32" s="5" t="s">
         <v>147</v>
       </c>
@@ -14159,7 +14123,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:78">
       <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
@@ -14240,7 +14204,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:78">
       <c r="B34" s="8" t="s">
         <v>43</v>
       </c>
@@ -14328,105 +14292,105 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:BZ83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="16384" width="2.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:78">
       <c r="B2" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.15">
-      <c r="B4" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="34"/>
-      <c r="AX4" s="34"/>
-      <c r="AY4" s="34"/>
-      <c r="AZ4" s="34"/>
-      <c r="BA4" s="34"/>
-      <c r="BB4" s="34"/>
-      <c r="BC4" s="34"/>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="34"/>
-      <c r="BK4" s="34"/>
-      <c r="BL4" s="34"/>
-      <c r="BM4" s="34"/>
-      <c r="BN4" s="34"/>
-      <c r="BO4" s="34"/>
-      <c r="BP4" s="34"/>
-      <c r="BQ4" s="34"/>
-      <c r="BR4" s="34"/>
-      <c r="BS4" s="34"/>
-      <c r="BT4" s="34"/>
-      <c r="BU4" s="34"/>
-      <c r="BV4" s="34"/>
-      <c r="BW4" s="34"/>
-      <c r="BX4" s="34"/>
-      <c r="BY4" s="34"/>
-      <c r="BZ4" s="34"/>
-    </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:78">
+      <c r="B4" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+      <c r="AN4" s="17"/>
+      <c r="AO4" s="17"/>
+      <c r="AP4" s="17"/>
+      <c r="AQ4" s="17"/>
+      <c r="AR4" s="17"/>
+      <c r="AS4" s="17"/>
+      <c r="AT4" s="17"/>
+      <c r="AU4" s="17"/>
+      <c r="AV4" s="17"/>
+      <c r="AW4" s="17"/>
+      <c r="AX4" s="17"/>
+      <c r="AY4" s="17"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="17"/>
+      <c r="BB4" s="17"/>
+      <c r="BC4" s="17"/>
+      <c r="BD4" s="17"/>
+      <c r="BE4" s="17"/>
+      <c r="BF4" s="17"/>
+      <c r="BG4" s="17"/>
+      <c r="BH4" s="17"/>
+      <c r="BI4" s="17"/>
+      <c r="BJ4" s="17"/>
+      <c r="BK4" s="17"/>
+      <c r="BL4" s="17"/>
+      <c r="BM4" s="17"/>
+      <c r="BN4" s="17"/>
+      <c r="BO4" s="17"/>
+      <c r="BP4" s="17"/>
+      <c r="BQ4" s="17"/>
+      <c r="BR4" s="17"/>
+      <c r="BS4" s="17"/>
+      <c r="BT4" s="17"/>
+      <c r="BU4" s="17"/>
+      <c r="BV4" s="17"/>
+      <c r="BW4" s="17"/>
+      <c r="BX4" s="17"/>
+      <c r="BY4" s="17"/>
+      <c r="BZ4" s="17"/>
+    </row>
+    <row r="5" spans="2:78">
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
@@ -14509,7 +14473,7 @@
       <c r="BY5" s="3"/>
       <c r="BZ5" s="4"/>
     </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:78">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
         <v>2</v>
@@ -14592,7 +14556,7 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="7"/>
     </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:78">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
@@ -14675,7 +14639,7 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="7"/>
     </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:78">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -14758,7 +14722,7 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="7"/>
     </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:78">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -14841,7 +14805,7 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="7"/>
     </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:78">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -14924,7 +14888,7 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="7"/>
     </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:78">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -15007,7 +14971,7 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="7"/>
     </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:78">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -15090,7 +15054,7 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="7"/>
     </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:78">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -15173,7 +15137,7 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="7"/>
     </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:78">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -15256,7 +15220,7 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="7"/>
     </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:78">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -15339,7 +15303,7 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="7"/>
     </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:78">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -15422,7 +15386,7 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="7"/>
     </row>
-    <row r="17" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:78">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -15505,7 +15469,7 @@
       <c r="BY17" s="6"/>
       <c r="BZ17" s="7"/>
     </row>
-    <row r="18" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:78">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -15588,7 +15552,7 @@
       <c r="BY18" s="6"/>
       <c r="BZ18" s="7"/>
     </row>
-    <row r="19" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:78">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -15671,7 +15635,7 @@
       <c r="BY19" s="6"/>
       <c r="BZ19" s="7"/>
     </row>
-    <row r="20" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:78">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -15754,7 +15718,7 @@
       <c r="BY20" s="6"/>
       <c r="BZ20" s="7"/>
     </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:78">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -15837,7 +15801,7 @@
       <c r="BY21" s="6"/>
       <c r="BZ21" s="7"/>
     </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:78">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -15920,7 +15884,7 @@
       <c r="BY22" s="6"/>
       <c r="BZ22" s="7"/>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:78">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -16003,7 +15967,7 @@
       <c r="BY23" s="6"/>
       <c r="BZ23" s="7"/>
     </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:78">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -16086,7 +16050,7 @@
       <c r="BY24" s="6"/>
       <c r="BZ24" s="7"/>
     </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:78">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -16169,7 +16133,7 @@
       <c r="BY25" s="6"/>
       <c r="BZ25" s="7"/>
     </row>
-    <row r="26" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:78">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -16252,7 +16216,7 @@
       <c r="BY26" s="6"/>
       <c r="BZ26" s="7"/>
     </row>
-    <row r="27" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:78">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -16335,7 +16299,7 @@
       <c r="BY27" s="6"/>
       <c r="BZ27" s="7"/>
     </row>
-    <row r="28" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:78">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -16418,7 +16382,7 @@
       <c r="BY28" s="6"/>
       <c r="BZ28" s="7"/>
     </row>
-    <row r="29" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:78">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -16501,7 +16465,7 @@
       <c r="BY29" s="6"/>
       <c r="BZ29" s="7"/>
     </row>
-    <row r="30" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:78">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -16584,7 +16548,7 @@
       <c r="BY30" s="6"/>
       <c r="BZ30" s="7"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:78">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -16667,7 +16631,7 @@
       <c r="BY31" s="6"/>
       <c r="BZ31" s="7"/>
     </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:78">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="s">
@@ -16750,7 +16714,7 @@
       <c r="BY32" s="6"/>
       <c r="BZ32" s="7"/>
     </row>
-    <row r="33" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:78">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -16833,7 +16797,7 @@
       <c r="BY33" s="6"/>
       <c r="BZ33" s="7"/>
     </row>
-    <row r="34" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:78">
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -16916,137 +16880,137 @@
       <c r="BY34" s="9"/>
       <c r="BZ34" s="10"/>
     </row>
-    <row r="37" spans="2:78" x14ac:dyDescent="0.15">
-      <c r="B37" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-      <c r="AK37" s="34"/>
-      <c r="AL37" s="34"/>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="34"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="34"/>
-      <c r="AW37" s="34"/>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="34"/>
-      <c r="BB37" s="34"/>
-      <c r="BC37" s="34"/>
-      <c r="BD37" s="34"/>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
-      <c r="BG37" s="34"/>
-      <c r="BH37" s="34"/>
-      <c r="BI37" s="34"/>
-      <c r="BJ37" s="34"/>
-      <c r="BK37" s="34"/>
-      <c r="BL37" s="34"/>
-      <c r="BM37" s="34"/>
-      <c r="BN37" s="34"/>
-      <c r="BO37" s="34"/>
-      <c r="BP37" s="34"/>
-      <c r="BQ37" s="34"/>
-      <c r="BR37" s="34"/>
-      <c r="BS37" s="34"/>
-      <c r="BT37" s="34"/>
-      <c r="BU37" s="34"/>
-      <c r="BV37" s="34"/>
-      <c r="BW37" s="34"/>
-      <c r="BX37" s="34"/>
-      <c r="BY37" s="34"/>
-      <c r="BZ37" s="34"/>
-    </row>
-    <row r="38" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
+    <row r="37" spans="2:78">
+      <c r="B37" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+      <c r="AD37" s="17"/>
+      <c r="AE37" s="17"/>
+      <c r="AF37" s="17"/>
+      <c r="AG37" s="17"/>
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17"/>
+      <c r="AN37" s="17"/>
+      <c r="AO37" s="17"/>
+      <c r="AP37" s="17"/>
+      <c r="AQ37" s="17"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AT37" s="17"/>
+      <c r="AU37" s="17"/>
+      <c r="AV37" s="17"/>
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="17"/>
+      <c r="AY37" s="17"/>
+      <c r="AZ37" s="17"/>
+      <c r="BA37" s="17"/>
+      <c r="BB37" s="17"/>
+      <c r="BC37" s="17"/>
+      <c r="BD37" s="17"/>
+      <c r="BE37" s="17"/>
+      <c r="BF37" s="17"/>
+      <c r="BG37" s="17"/>
+      <c r="BH37" s="17"/>
+      <c r="BI37" s="17"/>
+      <c r="BJ37" s="17"/>
+      <c r="BK37" s="17"/>
+      <c r="BL37" s="17"/>
+      <c r="BM37" s="17"/>
+      <c r="BN37" s="17"/>
+      <c r="BO37" s="17"/>
+      <c r="BP37" s="17"/>
+      <c r="BQ37" s="17"/>
+      <c r="BR37" s="17"/>
+      <c r="BS37" s="17"/>
+      <c r="BT37" s="17"/>
+      <c r="BU37" s="17"/>
+      <c r="BV37" s="17"/>
+      <c r="BW37" s="17"/>
+      <c r="BX37" s="17"/>
+      <c r="BY37" s="17"/>
+      <c r="BZ37" s="17"/>
+    </row>
+    <row r="38" spans="2:78">
+      <c r="B38" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
       <c r="AR38" s="3"/>
       <c r="AS38" s="3"/>
       <c r="AT38" s="3"/>
-      <c r="AU38" s="31" t="s">
-        <v>197</v>
+      <c r="AU38" s="14" t="s">
+        <v>196</v>
       </c>
       <c r="AV38" s="3"/>
       <c r="AW38" s="3"/>
@@ -17080,55 +17044,55 @@
       <c r="BY38" s="3"/>
       <c r="BZ38" s="4"/>
     </row>
-    <row r="39" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B39" s="32" t="s">
+    <row r="39" spans="2:78">
+      <c r="B39" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="33"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="33"/>
-      <c r="AF39" s="33"/>
-      <c r="AG39" s="33"/>
-      <c r="AH39" s="33"/>
-      <c r="AI39" s="33"/>
-      <c r="AJ39" s="33"/>
-      <c r="AK39" s="33"/>
-      <c r="AL39" s="33"/>
-      <c r="AM39" s="33"/>
-      <c r="AN39" s="33"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="16"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="16"/>
+      <c r="AN39" s="16"/>
       <c r="AO39" s="6"/>
       <c r="AP39" s="6"/>
       <c r="AQ39" s="6"/>
       <c r="AR39" s="6"/>
       <c r="AS39" s="6"/>
       <c r="AT39" s="6"/>
-      <c r="AU39" s="33" t="s">
+      <c r="AU39" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV39" s="6"/>
@@ -17163,55 +17127,55 @@
       <c r="BY39" s="6"/>
       <c r="BZ39" s="7"/>
     </row>
-    <row r="40" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B40" s="32"/>
-      <c r="C40" s="33" t="s">
+    <row r="40" spans="2:78">
+      <c r="B40" s="15"/>
+      <c r="C40" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="33"/>
-      <c r="AF40" s="33"/>
-      <c r="AG40" s="33"/>
-      <c r="AH40" s="33"/>
-      <c r="AI40" s="33"/>
-      <c r="AJ40" s="33"/>
-      <c r="AK40" s="33"/>
-      <c r="AL40" s="33"/>
-      <c r="AM40" s="33"/>
-      <c r="AN40" s="33"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16"/>
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16"/>
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="16"/>
+      <c r="AF40" s="16"/>
+      <c r="AG40" s="16"/>
+      <c r="AH40" s="16"/>
+      <c r="AI40" s="16"/>
+      <c r="AJ40" s="16"/>
+      <c r="AK40" s="16"/>
+      <c r="AL40" s="16"/>
+      <c r="AM40" s="16"/>
+      <c r="AN40" s="16"/>
       <c r="AO40" s="6"/>
       <c r="AP40" s="6"/>
       <c r="AQ40" s="6"/>
       <c r="AR40" s="6"/>
       <c r="AS40" s="6"/>
       <c r="AT40" s="6"/>
-      <c r="AU40" s="33" t="s">
+      <c r="AU40" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV40" s="6"/>
@@ -17246,55 +17210,55 @@
       <c r="BY40" s="6"/>
       <c r="BZ40" s="7"/>
     </row>
-    <row r="41" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33" t="s">
+    <row r="41" spans="2:78">
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="33"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="33"/>
-      <c r="AF41" s="33"/>
-      <c r="AG41" s="33"/>
-      <c r="AH41" s="33"/>
-      <c r="AI41" s="33"/>
-      <c r="AJ41" s="33"/>
-      <c r="AK41" s="33"/>
-      <c r="AL41" s="33"/>
-      <c r="AM41" s="33"/>
-      <c r="AN41" s="33"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
+      <c r="AG41" s="16"/>
+      <c r="AH41" s="16"/>
+      <c r="AI41" s="16"/>
+      <c r="AJ41" s="16"/>
+      <c r="AK41" s="16"/>
+      <c r="AL41" s="16"/>
+      <c r="AM41" s="16"/>
+      <c r="AN41" s="16"/>
       <c r="AO41" s="6"/>
       <c r="AP41" s="6"/>
       <c r="AQ41" s="6"/>
       <c r="AR41" s="6"/>
       <c r="AS41" s="6"/>
       <c r="AT41" s="6"/>
-      <c r="AU41" s="33" t="s">
+      <c r="AU41" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV41" s="6"/>
@@ -17329,55 +17293,55 @@
       <c r="BY41" s="6"/>
       <c r="BZ41" s="7"/>
     </row>
-    <row r="42" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B42" s="32" t="s">
+    <row r="42" spans="2:78">
+      <c r="B42" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="33"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="33"/>
-      <c r="AD42" s="33"/>
-      <c r="AE42" s="33"/>
-      <c r="AF42" s="33"/>
-      <c r="AG42" s="33"/>
-      <c r="AH42" s="33"/>
-      <c r="AI42" s="33"/>
-      <c r="AJ42" s="33"/>
-      <c r="AK42" s="33"/>
-      <c r="AL42" s="33"/>
-      <c r="AM42" s="33"/>
-      <c r="AN42" s="33"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="16"/>
+      <c r="AF42" s="16"/>
+      <c r="AG42" s="16"/>
+      <c r="AH42" s="16"/>
+      <c r="AI42" s="16"/>
+      <c r="AJ42" s="16"/>
+      <c r="AK42" s="16"/>
+      <c r="AL42" s="16"/>
+      <c r="AM42" s="16"/>
+      <c r="AN42" s="16"/>
       <c r="AO42" s="6"/>
       <c r="AP42" s="6"/>
       <c r="AQ42" s="6"/>
       <c r="AR42" s="6"/>
       <c r="AS42" s="6"/>
       <c r="AT42" s="6"/>
-      <c r="AU42" s="33" t="s">
+      <c r="AU42" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV42" s="6"/>
@@ -17412,55 +17376,55 @@
       <c r="BY42" s="6"/>
       <c r="BZ42" s="7"/>
     </row>
-    <row r="43" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33" t="s">
+    <row r="43" spans="2:78">
+      <c r="B43" s="15"/>
+      <c r="C43" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="33"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="33"/>
-      <c r="AD43" s="33"/>
-      <c r="AE43" s="33"/>
-      <c r="AF43" s="33"/>
-      <c r="AG43" s="33"/>
-      <c r="AH43" s="33"/>
-      <c r="AI43" s="33"/>
-      <c r="AJ43" s="33"/>
-      <c r="AK43" s="33"/>
-      <c r="AL43" s="33"/>
-      <c r="AM43" s="33"/>
-      <c r="AN43" s="33"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="16"/>
+      <c r="AG43" s="16"/>
+      <c r="AH43" s="16"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="16"/>
       <c r="AO43" s="6"/>
       <c r="AP43" s="6"/>
       <c r="AQ43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AS43" s="6"/>
       <c r="AT43" s="6"/>
-      <c r="AU43" s="33" t="s">
+      <c r="AU43" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV43" s="6"/>
@@ -17495,55 +17459,55 @@
       <c r="BY43" s="6"/>
       <c r="BZ43" s="7"/>
     </row>
-    <row r="44" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B44" s="32"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33" t="s">
+    <row r="44" spans="2:78">
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="33"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="33"/>
-      <c r="AD44" s="33"/>
-      <c r="AE44" s="33"/>
-      <c r="AF44" s="33"/>
-      <c r="AG44" s="33"/>
-      <c r="AH44" s="33"/>
-      <c r="AI44" s="33"/>
-      <c r="AJ44" s="33"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="33"/>
-      <c r="AM44" s="33"/>
-      <c r="AN44" s="33"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="16"/>
+      <c r="AN44" s="16"/>
       <c r="AO44" s="6"/>
       <c r="AP44" s="6"/>
       <c r="AQ44" s="6"/>
       <c r="AR44" s="6"/>
       <c r="AS44" s="6"/>
       <c r="AT44" s="6"/>
-      <c r="AU44" s="33" t="s">
+      <c r="AU44" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV44" s="6"/>
@@ -17578,55 +17542,55 @@
       <c r="BY44" s="6"/>
       <c r="BZ44" s="7"/>
     </row>
-    <row r="45" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
+    <row r="45" spans="2:78">
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="33"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="33"/>
-      <c r="AD45" s="33"/>
-      <c r="AE45" s="33"/>
-      <c r="AF45" s="33"/>
-      <c r="AG45" s="33"/>
-      <c r="AH45" s="33"/>
-      <c r="AI45" s="33"/>
-      <c r="AJ45" s="33"/>
-      <c r="AK45" s="33"/>
-      <c r="AL45" s="33"/>
-      <c r="AM45" s="33"/>
-      <c r="AN45" s="33"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="16"/>
+      <c r="AN45" s="16"/>
       <c r="AO45" s="6"/>
       <c r="AP45" s="6"/>
       <c r="AQ45" s="6"/>
       <c r="AR45" s="6"/>
       <c r="AS45" s="6"/>
       <c r="AT45" s="6"/>
-      <c r="AU45" s="33" t="s">
+      <c r="AU45" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV45" s="6"/>
@@ -17661,55 +17625,55 @@
       <c r="BY45" s="6"/>
       <c r="BZ45" s="7"/>
     </row>
-    <row r="46" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B46" s="32"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33" t="s">
+    <row r="46" spans="2:78">
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="33"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="33"/>
-      <c r="AD46" s="33"/>
-      <c r="AE46" s="33"/>
-      <c r="AF46" s="33"/>
-      <c r="AG46" s="33"/>
-      <c r="AH46" s="33"/>
-      <c r="AI46" s="33"/>
-      <c r="AJ46" s="33"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="33"/>
-      <c r="AM46" s="33"/>
-      <c r="AN46" s="33"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="16"/>
+      <c r="AN46" s="16"/>
       <c r="AO46" s="6"/>
       <c r="AP46" s="6"/>
       <c r="AQ46" s="6"/>
       <c r="AR46" s="6"/>
       <c r="AS46" s="6"/>
       <c r="AT46" s="6"/>
-      <c r="AU46" s="33" t="s">
+      <c r="AU46" s="16" t="s">
         <v>187</v>
       </c>
       <c r="AV46" s="6"/>
@@ -17744,56 +17708,56 @@
       <c r="BY46" s="6"/>
       <c r="BZ46" s="7"/>
     </row>
-    <row r="47" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B47" s="32"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="33"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="33"/>
-      <c r="AD47" s="33"/>
-      <c r="AE47" s="33"/>
-      <c r="AF47" s="33"/>
-      <c r="AG47" s="33"/>
-      <c r="AH47" s="33"/>
-      <c r="AI47" s="33"/>
-      <c r="AJ47" s="33"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="33"/>
-      <c r="AM47" s="33"/>
-      <c r="AN47" s="33"/>
+    <row r="47" spans="2:78">
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="16"/>
       <c r="AO47" s="6"/>
       <c r="AP47" s="6"/>
       <c r="AQ47" s="6"/>
       <c r="AR47" s="6"/>
       <c r="AS47" s="6"/>
       <c r="AT47" s="6"/>
-      <c r="AU47" s="33" t="s">
-        <v>198</v>
+      <c r="AU47" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="AV47" s="6"/>
       <c r="AW47" s="6"/>
@@ -17827,7 +17791,7 @@
       <c r="BY47" s="6"/>
       <c r="BZ47" s="7"/>
     </row>
-    <row r="48" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:78">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -17835,7 +17799,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
@@ -17876,7 +17840,7 @@
       <c r="AS48" s="6"/>
       <c r="AT48" s="6"/>
       <c r="AU48" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AV48" s="6"/>
       <c r="AW48" s="6"/>
@@ -17910,7 +17874,7 @@
       <c r="BY48" s="6"/>
       <c r="BZ48" s="7"/>
     </row>
-    <row r="49" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:78">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -17919,7 +17883,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
@@ -17959,7 +17923,7 @@
       <c r="AS49" s="6"/>
       <c r="AT49" s="6"/>
       <c r="AU49" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AV49" s="6"/>
       <c r="AW49" s="6"/>
@@ -17993,7 +17957,7 @@
       <c r="BY49" s="6"/>
       <c r="BZ49" s="7"/>
     </row>
-    <row r="50" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:78">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -18003,7 +17967,7 @@
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
       <c r="J50" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
@@ -18042,7 +18006,7 @@
       <c r="AS50" s="6"/>
       <c r="AT50" s="6"/>
       <c r="AU50" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV50" s="6"/>
       <c r="AW50" s="6"/>
@@ -18076,7 +18040,7 @@
       <c r="BY50" s="6"/>
       <c r="BZ50" s="7"/>
     </row>
-    <row r="51" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:78">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -18087,7 +18051,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -18125,7 +18089,7 @@
       <c r="AS51" s="6"/>
       <c r="AT51" s="6"/>
       <c r="AU51" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV51" s="6"/>
       <c r="AW51" s="6"/>
@@ -18159,7 +18123,7 @@
       <c r="BY51" s="6"/>
       <c r="BZ51" s="7"/>
     </row>
-    <row r="52" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:78">
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -18171,7 +18135,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c r="L52" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -18208,7 +18172,7 @@
       <c r="AS52" s="9"/>
       <c r="AT52" s="9"/>
       <c r="AU52" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV52" s="9"/>
       <c r="AW52" s="9"/>
@@ -18242,90 +18206,90 @@
       <c r="BY52" s="9"/>
       <c r="BZ52" s="10"/>
     </row>
-    <row r="55" spans="2:78" x14ac:dyDescent="0.15">
-      <c r="B55" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="34"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="34"/>
-      <c r="AK55" s="34"/>
-      <c r="AL55" s="34"/>
-      <c r="AM55" s="34"/>
-      <c r="AN55" s="34"/>
-      <c r="AO55" s="34"/>
-      <c r="AP55" s="34"/>
-      <c r="AQ55" s="34"/>
-      <c r="AR55" s="34"/>
-      <c r="AS55" s="34"/>
-      <c r="AT55" s="34"/>
-      <c r="AU55" s="34"/>
-      <c r="AV55" s="34"/>
-      <c r="AW55" s="34"/>
-      <c r="AX55" s="34"/>
-      <c r="AY55" s="34"/>
-      <c r="AZ55" s="34"/>
-      <c r="BA55" s="34"/>
-      <c r="BB55" s="34"/>
-      <c r="BC55" s="34"/>
-      <c r="BD55" s="34"/>
-      <c r="BE55" s="34"/>
-      <c r="BF55" s="34"/>
-      <c r="BG55" s="34"/>
-      <c r="BH55" s="34"/>
-      <c r="BI55" s="34"/>
-      <c r="BJ55" s="34"/>
-      <c r="BK55" s="34"/>
-      <c r="BL55" s="34"/>
-      <c r="BM55" s="34"/>
-      <c r="BN55" s="34"/>
-      <c r="BO55" s="34"/>
-      <c r="BP55" s="34"/>
-      <c r="BQ55" s="34"/>
-      <c r="BR55" s="34"/>
-      <c r="BS55" s="34"/>
-      <c r="BT55" s="34"/>
-      <c r="BU55" s="34"/>
-      <c r="BV55" s="34"/>
-      <c r="BW55" s="34"/>
-      <c r="BX55" s="34"/>
-      <c r="BY55" s="34"/>
-      <c r="BZ55" s="34"/>
-    </row>
-    <row r="56" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:78">
+      <c r="B55" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="17"/>
+      <c r="X55" s="17"/>
+      <c r="Y55" s="17"/>
+      <c r="Z55" s="17"/>
+      <c r="AA55" s="17"/>
+      <c r="AB55" s="17"/>
+      <c r="AC55" s="17"/>
+      <c r="AD55" s="17"/>
+      <c r="AE55" s="17"/>
+      <c r="AF55" s="17"/>
+      <c r="AG55" s="17"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="17"/>
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+      <c r="AL55" s="17"/>
+      <c r="AM55" s="17"/>
+      <c r="AN55" s="17"/>
+      <c r="AO55" s="17"/>
+      <c r="AP55" s="17"/>
+      <c r="AQ55" s="17"/>
+      <c r="AR55" s="17"/>
+      <c r="AS55" s="17"/>
+      <c r="AT55" s="17"/>
+      <c r="AU55" s="17"/>
+      <c r="AV55" s="17"/>
+      <c r="AW55" s="17"/>
+      <c r="AX55" s="17"/>
+      <c r="AY55" s="17"/>
+      <c r="AZ55" s="17"/>
+      <c r="BA55" s="17"/>
+      <c r="BB55" s="17"/>
+      <c r="BC55" s="17"/>
+      <c r="BD55" s="17"/>
+      <c r="BE55" s="17"/>
+      <c r="BF55" s="17"/>
+      <c r="BG55" s="17"/>
+      <c r="BH55" s="17"/>
+      <c r="BI55" s="17"/>
+      <c r="BJ55" s="17"/>
+      <c r="BK55" s="17"/>
+      <c r="BL55" s="17"/>
+      <c r="BM55" s="17"/>
+      <c r="BN55" s="17"/>
+      <c r="BO55" s="17"/>
+      <c r="BP55" s="17"/>
+      <c r="BQ55" s="17"/>
+      <c r="BR55" s="17"/>
+      <c r="BS55" s="17"/>
+      <c r="BT55" s="17"/>
+      <c r="BU55" s="17"/>
+      <c r="BV55" s="17"/>
+      <c r="BW55" s="17"/>
+      <c r="BX55" s="17"/>
+      <c r="BY55" s="17"/>
+      <c r="BZ55" s="17"/>
+    </row>
+    <row r="56" spans="2:78">
       <c r="B56" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -18372,7 +18336,7 @@
       <c r="AS56" s="3"/>
       <c r="AT56" s="3"/>
       <c r="AU56" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AV56" s="3"/>
       <c r="AW56" s="3"/>
@@ -18406,9 +18370,9 @@
       <c r="BY56" s="3"/>
       <c r="BZ56" s="4"/>
     </row>
-    <row r="57" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:78">
       <c r="B57" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -18455,7 +18419,7 @@
       <c r="AS57" s="6"/>
       <c r="AT57" s="6"/>
       <c r="AU57" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AV57" s="6"/>
       <c r="AW57" s="6"/>
@@ -18489,10 +18453,10 @@
       <c r="BY57" s="6"/>
       <c r="BZ57" s="7"/>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:78">
       <c r="B58" s="5"/>
       <c r="C58" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -18538,7 +18502,7 @@
       <c r="AS58" s="6"/>
       <c r="AT58" s="6"/>
       <c r="AU58" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AV58" s="6"/>
       <c r="AW58" s="6"/>
@@ -18572,9 +18536,9 @@
       <c r="BY58" s="6"/>
       <c r="BZ58" s="7"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:78">
       <c r="B59" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -18621,7 +18585,7 @@
       <c r="AS59" s="6"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
@@ -18655,10 +18619,10 @@
       <c r="BY59" s="6"/>
       <c r="BZ59" s="7"/>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:78">
       <c r="B60" s="5"/>
       <c r="C60" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -18704,7 +18668,7 @@
       <c r="AS60" s="6"/>
       <c r="AT60" s="6"/>
       <c r="AU60" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AV60" s="6"/>
       <c r="AW60" s="6"/>
@@ -18738,11 +18702,11 @@
       <c r="BY60" s="6"/>
       <c r="BZ60" s="7"/>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:78">
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -18787,7 +18751,7 @@
       <c r="AS61" s="6"/>
       <c r="AT61" s="6"/>
       <c r="AU61" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV61" s="6"/>
       <c r="AW61" s="6"/>
@@ -18821,12 +18785,12 @@
       <c r="BY61" s="6"/>
       <c r="BZ61" s="7"/>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:78">
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -18870,7 +18834,7 @@
       <c r="AS62" s="6"/>
       <c r="AT62" s="6"/>
       <c r="AU62" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV62" s="6"/>
       <c r="AW62" s="6"/>
@@ -18904,13 +18868,13 @@
       <c r="BY62" s="6"/>
       <c r="BZ62" s="7"/>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:78">
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -18953,7 +18917,7 @@
       <c r="AS63" s="6"/>
       <c r="AT63" s="6"/>
       <c r="AU63" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV63" s="6"/>
       <c r="AW63" s="6"/>
@@ -18987,14 +18951,14 @@
       <c r="BY63" s="6"/>
       <c r="BZ63" s="7"/>
     </row>
-    <row r="64" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:78">
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="6"/>
@@ -19036,7 +19000,7 @@
       <c r="AS64" s="6"/>
       <c r="AT64" s="6"/>
       <c r="AU64" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV64" s="6"/>
       <c r="AW64" s="6"/>
@@ -19070,7 +19034,7 @@
       <c r="BY64" s="6"/>
       <c r="BZ64" s="7"/>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:78">
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -19078,7 +19042,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
@@ -19119,7 +19083,7 @@
       <c r="AS65" s="6"/>
       <c r="AT65" s="6"/>
       <c r="AU65" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AV65" s="6"/>
       <c r="AW65" s="6"/>
@@ -19153,7 +19117,7 @@
       <c r="BY65" s="6"/>
       <c r="BZ65" s="7"/>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:78">
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -19232,9 +19196,9 @@
       <c r="BY66" s="6"/>
       <c r="BZ66" s="7"/>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:78">
       <c r="B67" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -19313,9 +19277,9 @@
       <c r="BY67" s="6"/>
       <c r="BZ67" s="7"/>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:78">
       <c r="B68" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -19394,9 +19358,9 @@
       <c r="BY68" s="6"/>
       <c r="BZ68" s="7"/>
     </row>
-    <row r="69" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:78">
       <c r="B69" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -19475,9 +19439,9 @@
       <c r="BY69" s="6"/>
       <c r="BZ69" s="7"/>
     </row>
-    <row r="70" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:78">
       <c r="B70" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -19556,9 +19520,9 @@
       <c r="BY70" s="6"/>
       <c r="BZ70" s="7"/>
     </row>
-    <row r="71" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:78">
       <c r="B71" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -19637,9 +19601,9 @@
       <c r="BY71" s="6"/>
       <c r="BZ71" s="7"/>
     </row>
-    <row r="72" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:78">
       <c r="B72" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -19718,9 +19682,9 @@
       <c r="BY72" s="6"/>
       <c r="BZ72" s="7"/>
     </row>
-    <row r="73" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:78">
       <c r="B73" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -19799,9 +19763,9 @@
       <c r="BY73" s="6"/>
       <c r="BZ73" s="7"/>
     </row>
-    <row r="74" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:78">
       <c r="B74" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -19880,9 +19844,9 @@
       <c r="BY74" s="6"/>
       <c r="BZ74" s="7"/>
     </row>
-    <row r="75" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:78">
       <c r="B75" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -19961,9 +19925,9 @@
       <c r="BY75" s="6"/>
       <c r="BZ75" s="7"/>
     </row>
-    <row r="76" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:78">
       <c r="B76" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
@@ -20042,7 +20006,7 @@
       <c r="BY76" s="6"/>
       <c r="BZ76" s="7"/>
     </row>
-    <row r="77" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:78">
       <c r="B77" s="5" t="s">
         <v>43</v>
       </c>
@@ -20123,7 +20087,7 @@
       <c r="BY77" s="6"/>
       <c r="BZ77" s="7"/>
     </row>
-    <row r="78" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:78">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
@@ -20202,9 +20166,9 @@
       <c r="BY78" s="6"/>
       <c r="BZ78" s="7"/>
     </row>
-    <row r="79" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:78">
       <c r="B79" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -20283,9 +20247,9 @@
       <c r="BY79" s="6"/>
       <c r="BZ79" s="7"/>
     </row>
-    <row r="80" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:78">
       <c r="B80" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -20364,9 +20328,9 @@
       <c r="BY80" s="6"/>
       <c r="BZ80" s="7"/>
     </row>
-    <row r="81" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:78">
       <c r="B81" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -20445,9 +20409,9 @@
       <c r="BY81" s="6"/>
       <c r="BZ81" s="7"/>
     </row>
-    <row r="82" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:78">
       <c r="B82" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -20526,7 +20490,7 @@
       <c r="BY82" s="6"/>
       <c r="BZ82" s="7"/>
     </row>
-    <row r="83" spans="2:78" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:78">
       <c r="B83" s="8" t="s">
         <v>43</v>
       </c>
